--- a/S32M2/S32M24x_IOMUX.xlsx
+++ b/S32M2/S32M24x_IOMUX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/felipe_garcia_1_nxp_com/Documents/Auto - Apps/S32M2/Pinout spredsheets/S32M24x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/felipe_garcia_1_nxp_com/Documents/Auto - Apps/S32M2/Pinout spredsheets/S32M24x/S32M24x_Spreadsheets_Mar2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{1AC298CB-ECDE-4B6F-914F-F67A3C4C202B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F401CE-C8A8-4BF8-8B9D-3D41659C3DA3}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{1AC298CB-ECDE-4B6F-914F-F67A3C4C202B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E816E0-F168-4360-A612-F176188B5B22}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{2D9220C8-0BDC-4741-8ECC-ED15E4E837EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D9220C8-0BDC-4741-8ECC-ED15E4E837EC}"/>
   </bookViews>
   <sheets>
     <sheet name="D2D Interface" sheetId="18" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="S32M244C_64lqfp_ep" sheetId="148" r:id="rId15"/>
     <sheet name="S32M244L_64lqfp_ep" sheetId="149" r:id="rId16"/>
     <sheet name="S32M244_PeripheralSummaries" sheetId="150" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="161" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'S32M242_IO Signal Table'!$A$2:$U$289</definedName>
@@ -2189,10 +2188,10 @@
     <t>S32K142_48lqfp</t>
   </si>
   <si>
-    <t>Reserved</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>CXPI_UCLKI</t>
   </si>
 </sst>
 </file>
@@ -4227,6 +4226,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="14" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4278,7 +4278,6 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="14" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4607,8 +4606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD683C2-A296-47FA-8168-A203ECFA3658}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4638,17 +4637,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
         <v>646</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="192"/>
       <c r="J1" s="174"/>
       <c r="K1" s="56" t="s">
         <v>1</v>
@@ -4658,38 +4657,38 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="192" t="s">
+      <c r="D2" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="192" t="s">
+      <c r="E2" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="194" t="s">
+      <c r="F2" s="195" t="s">
         <v>647</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="196"/>
-      <c r="I2" s="187" t="s">
+      <c r="H2" s="197"/>
+      <c r="I2" s="188" t="s">
         <v>648</v>
       </c>
-      <c r="J2" s="196" t="s">
+      <c r="J2" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="187" t="s">
+      <c r="K2" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="185" t="s">
+      <c r="L2" s="186" t="s">
         <v>649</v>
       </c>
-      <c r="M2" s="187" t="s">
+      <c r="M2" s="188" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4697,22 +4696,22 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="196"/>
       <c r="G3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="188"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="189"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -5246,7 +5245,7 @@
         <v>101</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H18" s="59" t="s">
         <v>102</v>
@@ -5255,7 +5254,7 @@
       <c r="J18" s="49"/>
       <c r="K18" s="26"/>
       <c r="L18" s="64" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>104</v>
@@ -5358,7 +5357,7 @@
       <c r="K22" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="202" t="s">
+      <c r="L22" s="185" t="s">
         <v>112</v>
       </c>
       <c r="M22" s="10" t="s">
@@ -5395,7 +5394,7 @@
       <c r="K23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="L23" s="202" t="s">
+      <c r="L23" s="185" t="s">
         <v>117</v>
       </c>
       <c r="M23" s="25" t="s">
@@ -5434,7 +5433,7 @@
       <c r="K24" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="L24" s="202" t="s">
+      <c r="L24" s="185" t="s">
         <v>124</v>
       </c>
       <c r="M24" s="10" t="s">
@@ -5708,7 +5707,7 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8965,11 +8964,11 @@
   </sheetPr>
   <dimension ref="A1:U297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K39" sqref="K39"/>
       <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
-      <selection pane="bottomRight" activeCell="Q75" sqref="Q75"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9003,20 +9002,20 @@
       <c r="I1" s="129"/>
       <c r="J1" s="129"/>
       <c r="K1" s="129"/>
-      <c r="L1" s="199" t="s">
+      <c r="L1" s="200" t="s">
         <v>393</v>
       </c>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
       <c r="T1" s="129"/>
       <c r="U1" s="130"/>
     </row>
-    <row r="2" spans="1:21" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="131" t="s">
         <v>3</v>
       </c>
@@ -20365,7 +20364,9 @@
   </sheetPr>
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22417,7 +22418,7 @@
     <col min="8" max="16384" width="9.109375" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="106.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="106.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
         <v>561</v>
       </c>
@@ -29094,7 +29095,7 @@
   <dimension ref="C2:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29438,7 +29439,7 @@
       <c r="I14" s="102"/>
       <c r="J14" s="102"/>
       <c r="K14" s="102"/>
-      <c r="L14" s="200">
+      <c r="L14" s="201">
         <v>65</v>
       </c>
       <c r="M14" s="102"/>
@@ -29470,7 +29471,7 @@
       <c r="I15" s="102"/>
       <c r="J15" s="102"/>
       <c r="K15" s="102"/>
-      <c r="L15" s="200"/>
+      <c r="L15" s="201"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
       <c r="O15" s="102"/>
@@ -29500,7 +29501,7 @@
       <c r="I16" s="102"/>
       <c r="J16" s="102"/>
       <c r="K16" s="102"/>
-      <c r="L16" s="201" t="s">
+      <c r="L16" s="202" t="s">
         <v>106</v>
       </c>
       <c r="M16" s="102"/>
@@ -29532,7 +29533,7 @@
       <c r="I17" s="102"/>
       <c r="J17" s="102"/>
       <c r="K17" s="102"/>
-      <c r="L17" s="201"/>
+      <c r="L17" s="202"/>
       <c r="M17" s="102"/>
       <c r="N17" s="102"/>
       <c r="O17" s="102"/>
@@ -29562,7 +29563,7 @@
       <c r="I18" s="102"/>
       <c r="J18" s="102"/>
       <c r="K18" s="102"/>
-      <c r="L18" s="201"/>
+      <c r="L18" s="202"/>
       <c r="M18" s="102"/>
       <c r="N18" s="102"/>
       <c r="O18" s="102"/>
@@ -29592,7 +29593,7 @@
       <c r="I19" s="102"/>
       <c r="J19" s="102"/>
       <c r="K19" s="102"/>
-      <c r="L19" s="201"/>
+      <c r="L19" s="202"/>
       <c r="M19" s="102"/>
       <c r="N19" s="102"/>
       <c r="O19" s="102"/>
@@ -29622,7 +29623,7 @@
       <c r="I20" s="102"/>
       <c r="J20" s="102"/>
       <c r="K20" s="102"/>
-      <c r="L20" s="201"/>
+      <c r="L20" s="202"/>
       <c r="M20" s="102"/>
       <c r="N20" s="102"/>
       <c r="O20" s="102"/>
@@ -29652,7 +29653,7 @@
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
       <c r="K21" s="102"/>
-      <c r="L21" s="201"/>
+      <c r="L21" s="202"/>
       <c r="M21" s="102"/>
       <c r="N21" s="102"/>
       <c r="O21" s="102"/>
@@ -29682,7 +29683,7 @@
       <c r="I22" s="102"/>
       <c r="J22" s="102"/>
       <c r="K22" s="102"/>
-      <c r="L22" s="201"/>
+      <c r="L22" s="202"/>
       <c r="M22" s="102"/>
       <c r="N22" s="102"/>
       <c r="O22" s="102"/>
@@ -29854,7 +29855,7 @@
   <dimension ref="C2:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30198,7 +30199,7 @@
       <c r="I14" s="102"/>
       <c r="J14" s="102"/>
       <c r="K14" s="102"/>
-      <c r="L14" s="200">
+      <c r="L14" s="201">
         <v>65</v>
       </c>
       <c r="M14" s="102"/>
@@ -30230,7 +30231,7 @@
       <c r="I15" s="102"/>
       <c r="J15" s="102"/>
       <c r="K15" s="102"/>
-      <c r="L15" s="200"/>
+      <c r="L15" s="201"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
       <c r="O15" s="102"/>
@@ -30260,7 +30261,7 @@
       <c r="I16" s="102"/>
       <c r="J16" s="102"/>
       <c r="K16" s="102"/>
-      <c r="L16" s="201" t="s">
+      <c r="L16" s="202" t="s">
         <v>106</v>
       </c>
       <c r="M16" s="102"/>
@@ -30292,7 +30293,7 @@
       <c r="I17" s="102"/>
       <c r="J17" s="102"/>
       <c r="K17" s="102"/>
-      <c r="L17" s="201"/>
+      <c r="L17" s="202"/>
       <c r="M17" s="102"/>
       <c r="N17" s="102"/>
       <c r="O17" s="102"/>
@@ -30322,7 +30323,7 @@
       <c r="I18" s="102"/>
       <c r="J18" s="102"/>
       <c r="K18" s="102"/>
-      <c r="L18" s="201"/>
+      <c r="L18" s="202"/>
       <c r="M18" s="102"/>
       <c r="N18" s="102"/>
       <c r="O18" s="102"/>
@@ -30352,7 +30353,7 @@
       <c r="I19" s="102"/>
       <c r="J19" s="102"/>
       <c r="K19" s="102"/>
-      <c r="L19" s="201"/>
+      <c r="L19" s="202"/>
       <c r="M19" s="102"/>
       <c r="N19" s="102"/>
       <c r="O19" s="102"/>
@@ -30382,7 +30383,7 @@
       <c r="I20" s="102"/>
       <c r="J20" s="102"/>
       <c r="K20" s="102"/>
-      <c r="L20" s="201"/>
+      <c r="L20" s="202"/>
       <c r="M20" s="102"/>
       <c r="N20" s="102"/>
       <c r="O20" s="102"/>
@@ -30412,7 +30413,7 @@
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
       <c r="K21" s="102"/>
-      <c r="L21" s="201"/>
+      <c r="L21" s="202"/>
       <c r="M21" s="102"/>
       <c r="N21" s="102"/>
       <c r="O21" s="102"/>
@@ -30442,7 +30443,7 @@
       <c r="I22" s="102"/>
       <c r="J22" s="102"/>
       <c r="K22" s="102"/>
-      <c r="L22" s="201"/>
+      <c r="L22" s="202"/>
       <c r="M22" s="102"/>
       <c r="N22" s="102"/>
       <c r="O22" s="102"/>
@@ -30613,8 +30614,8 @@
   </sheetPr>
   <dimension ref="A1:D465"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B33"/>
+    <sheetView topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="C441" sqref="C441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30723,7 +30724,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="123" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B8" s="86">
         <v>39</v>
@@ -30737,7 +30738,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="123" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B9" s="86">
         <v>40</v>
@@ -34947,18 +34948,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465B3CCD-C209-4CE7-B9FF-A1A93BAA6FA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34970,8 +34959,8 @@
   </sheetPr>
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView topLeftCell="G27" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38212,10 +38201,10 @@
   <dimension ref="A1:U290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F35" sqref="F35"/>
       <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
-      <selection pane="bottomRight" activeCell="H260" sqref="H260"/>
+      <selection pane="bottomRight" activeCell="F228" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38249,20 +38238,20 @@
       <c r="I1" s="129"/>
       <c r="J1" s="129"/>
       <c r="K1" s="129"/>
-      <c r="L1" s="199" t="s">
+      <c r="L1" s="200" t="s">
         <v>393</v>
       </c>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
       <c r="T1" s="129"/>
       <c r="U1" s="130"/>
     </row>
-    <row r="2" spans="1:21" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="105.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="131" t="s">
         <v>3</v>
       </c>
@@ -55867,7 +55856,7 @@
     <col min="8" max="16384" width="9.109375" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="106.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="106.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
         <v>561</v>
       </c>
@@ -56261,7 +56250,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57496,7 +57485,7 @@
       <c r="I14" s="102"/>
       <c r="J14" s="102"/>
       <c r="K14" s="102"/>
-      <c r="L14" s="200">
+      <c r="L14" s="201">
         <v>65</v>
       </c>
       <c r="M14" s="102"/>
@@ -57528,7 +57517,7 @@
       <c r="I15" s="102"/>
       <c r="J15" s="102"/>
       <c r="K15" s="102"/>
-      <c r="L15" s="200"/>
+      <c r="L15" s="201"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
       <c r="O15" s="102"/>
@@ -57558,7 +57547,7 @@
       <c r="I16" s="102"/>
       <c r="J16" s="102"/>
       <c r="K16" s="102"/>
-      <c r="L16" s="201" t="s">
+      <c r="L16" s="202" t="s">
         <v>106</v>
       </c>
       <c r="M16" s="102"/>
@@ -57590,7 +57579,7 @@
       <c r="I17" s="102"/>
       <c r="J17" s="102"/>
       <c r="K17" s="102"/>
-      <c r="L17" s="201"/>
+      <c r="L17" s="202"/>
       <c r="M17" s="102"/>
       <c r="N17" s="102"/>
       <c r="O17" s="102"/>
@@ -57620,7 +57609,7 @@
       <c r="I18" s="102"/>
       <c r="J18" s="102"/>
       <c r="K18" s="102"/>
-      <c r="L18" s="201"/>
+      <c r="L18" s="202"/>
       <c r="M18" s="102"/>
       <c r="N18" s="102"/>
       <c r="O18" s="102"/>
@@ -57650,7 +57639,7 @@
       <c r="I19" s="102"/>
       <c r="J19" s="102"/>
       <c r="K19" s="102"/>
-      <c r="L19" s="201"/>
+      <c r="L19" s="202"/>
       <c r="M19" s="102"/>
       <c r="N19" s="102"/>
       <c r="O19" s="102"/>
@@ -57680,7 +57669,7 @@
       <c r="I20" s="102"/>
       <c r="J20" s="102"/>
       <c r="K20" s="102"/>
-      <c r="L20" s="201"/>
+      <c r="L20" s="202"/>
       <c r="M20" s="102"/>
       <c r="N20" s="102"/>
       <c r="O20" s="102"/>
@@ -57710,7 +57699,7 @@
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
       <c r="K21" s="102"/>
-      <c r="L21" s="201"/>
+      <c r="L21" s="202"/>
       <c r="M21" s="102"/>
       <c r="N21" s="102"/>
       <c r="O21" s="102"/>
@@ -57740,7 +57729,7 @@
       <c r="I22" s="102"/>
       <c r="J22" s="102"/>
       <c r="K22" s="102"/>
-      <c r="L22" s="201"/>
+      <c r="L22" s="202"/>
       <c r="M22" s="102"/>
       <c r="N22" s="102"/>
       <c r="O22" s="102"/>
@@ -58256,7 +58245,7 @@
       <c r="I14" s="102"/>
       <c r="J14" s="102"/>
       <c r="K14" s="102"/>
-      <c r="L14" s="200">
+      <c r="L14" s="201">
         <v>65</v>
       </c>
       <c r="M14" s="102"/>
@@ -58288,7 +58277,7 @@
       <c r="I15" s="102"/>
       <c r="J15" s="102"/>
       <c r="K15" s="102"/>
-      <c r="L15" s="200"/>
+      <c r="L15" s="201"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
       <c r="O15" s="102"/>
@@ -58318,7 +58307,7 @@
       <c r="I16" s="102"/>
       <c r="J16" s="102"/>
       <c r="K16" s="102"/>
-      <c r="L16" s="201" t="s">
+      <c r="L16" s="202" t="s">
         <v>106</v>
       </c>
       <c r="M16" s="102"/>
@@ -58350,7 +58339,7 @@
       <c r="I17" s="102"/>
       <c r="J17" s="102"/>
       <c r="K17" s="102"/>
-      <c r="L17" s="201"/>
+      <c r="L17" s="202"/>
       <c r="M17" s="102"/>
       <c r="N17" s="102"/>
       <c r="O17" s="102"/>
@@ -58380,7 +58369,7 @@
       <c r="I18" s="102"/>
       <c r="J18" s="102"/>
       <c r="K18" s="102"/>
-      <c r="L18" s="201"/>
+      <c r="L18" s="202"/>
       <c r="M18" s="102"/>
       <c r="N18" s="102"/>
       <c r="O18" s="102"/>
@@ -58410,7 +58399,7 @@
       <c r="I19" s="102"/>
       <c r="J19" s="102"/>
       <c r="K19" s="102"/>
-      <c r="L19" s="201"/>
+      <c r="L19" s="202"/>
       <c r="M19" s="102"/>
       <c r="N19" s="102"/>
       <c r="O19" s="102"/>
@@ -58440,7 +58429,7 @@
       <c r="I20" s="102"/>
       <c r="J20" s="102"/>
       <c r="K20" s="102"/>
-      <c r="L20" s="201"/>
+      <c r="L20" s="202"/>
       <c r="M20" s="102"/>
       <c r="N20" s="102"/>
       <c r="O20" s="102"/>
@@ -58470,7 +58459,7 @@
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
       <c r="K21" s="102"/>
-      <c r="L21" s="201"/>
+      <c r="L21" s="202"/>
       <c r="M21" s="102"/>
       <c r="N21" s="102"/>
       <c r="O21" s="102"/>
@@ -58500,7 +58489,7 @@
       <c r="I22" s="102"/>
       <c r="J22" s="102"/>
       <c r="K22" s="102"/>
-      <c r="L22" s="201"/>
+      <c r="L22" s="202"/>
       <c r="M22" s="102"/>
       <c r="N22" s="102"/>
       <c r="O22" s="102"/>
@@ -58781,7 +58770,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="123" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B8" s="86">
         <v>39</v>
@@ -58795,7 +58784,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="123" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B9" s="86">
         <v>40</v>
